--- a/artfynd/A 650-2026 artfynd.xlsx
+++ b/artfynd/A 650-2026 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131107410</v>
       </c>
       <c r="B2" t="n">
-        <v>92106</v>
+        <v>92107</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/artfynd/A 650-2026 artfynd.xlsx
+++ b/artfynd/A 650-2026 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131107410</v>
       </c>
       <c r="B2" t="n">
-        <v>92107</v>
+        <v>92108</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/artfynd/A 650-2026 artfynd.xlsx
+++ b/artfynd/A 650-2026 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131107410</v>
       </c>
       <c r="B2" t="n">
-        <v>92108</v>
+        <v>92111</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/artfynd/A 650-2026 artfynd.xlsx
+++ b/artfynd/A 650-2026 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131107410</v>
       </c>
       <c r="B2" t="n">
-        <v>92111</v>
+        <v>92112</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
